--- a/scoresheets_tocheck/EFQ_Scoresheet.xlsx
+++ b/scoresheets_tocheck/EFQ_Scoresheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/Research UW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/BAM-data-cleaning/scoresheets_tocheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028E44BC-CAC6-724C-B689-D9905CFF1C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE44853F-D338-3349-B019-2815B616063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="128">
   <si>
     <t>raw_vars</t>
   </si>
@@ -360,6 +360,66 @@
   </si>
   <si>
     <t>efq_fowg</t>
+  </si>
+  <si>
+    <t>efq_fowg_weighted_sum</t>
+  </si>
+  <si>
+    <t>efq_fowg_sum_25</t>
+  </si>
+  <si>
+    <t>weighted sum of EFQ FOWG with 25% or less missing</t>
+  </si>
+  <si>
+    <t>efq_fowg_NA_percent &gt; 25</t>
+  </si>
+  <si>
+    <t>efq_fosc_weighted_sum</t>
+  </si>
+  <si>
+    <t>efq_fosc_sum_25</t>
+  </si>
+  <si>
+    <t>weighted sum of EFQ FOSC with 25% or less missing</t>
+  </si>
+  <si>
+    <t>efq_fosc_NA_percent &gt; 25</t>
+  </si>
+  <si>
+    <t>efq_fopc_weighted_sum</t>
+  </si>
+  <si>
+    <t>weighted sum of EFQ FOPC with 25% or less missing</t>
+  </si>
+  <si>
+    <t>efq_fopc_NA_percent &gt; 25</t>
+  </si>
+  <si>
+    <t>efq_fops_weighted_sum</t>
+  </si>
+  <si>
+    <t>efq_fopc_sum_25</t>
+  </si>
+  <si>
+    <t>efq_fops_sum_25</t>
+  </si>
+  <si>
+    <t>weighted sum of EFQ FOPS with 25% or less missing</t>
+  </si>
+  <si>
+    <t>efq_fops_NA_percent &gt; 25</t>
+  </si>
+  <si>
+    <t>efq_fose_weighted_sum</t>
+  </si>
+  <si>
+    <t>efq_fose_sum_25</t>
+  </si>
+  <si>
+    <t>weighted sum of EFQ FOSE with 25% or less missing</t>
+  </si>
+  <si>
+    <t>efq_fose_NA_percent &gt; 25</t>
   </si>
 </sst>
 </file>
@@ -724,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7308F9-F148-F248-A8CF-73AEFF3C6044}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,20 +2481,20 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>84</v>
+      <c r="A49" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>32</v>
@@ -2442,34 +2502,34 @@
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="H49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>32</v>
@@ -2477,34 +2537,38 @@
       <c r="G50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>32</v>
@@ -2524,26 +2588,22 @@
       <c r="K51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>32</v>
@@ -2566,19 +2626,19 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>32</v>
@@ -2600,20 +2660,20 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>104</v>
+      <c r="A54" t="s">
+        <v>84</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>32</v>
@@ -2622,23 +2682,192 @@
         <v>32</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scoresheets_tocheck/EFQ_Scoresheet.xlsx
+++ b/scoresheets_tocheck/EFQ_Scoresheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/BAM-data-cleaning/scoresheets_tocheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE44853F-D338-3349-B019-2815B616063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C859CF3-7CB2-AE48-BAD6-489EC845E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="109">
   <si>
     <t>raw_vars</t>
   </si>
@@ -320,106 +320,49 @@
     <t>efq_1_wt_gain, efq_2_gain_afraid</t>
   </si>
   <si>
-    <t>sum of EFQ Fear of Weight Gain questions</t>
-  </si>
-  <si>
     <t>efq_3_rejected, efq_4_disappoint, efq_5_judged, efq_6_look_funny, efq_7_criticize, efq_8_judged_eat, efq_9_abandon, efq_10_perfect</t>
   </si>
   <si>
     <t>efq_fosc</t>
   </si>
   <si>
-    <t>sum of EFQ Fear of Social Consequences questions</t>
-  </si>
-  <si>
     <t>efq_11_overeat_lazy, efq_14_lose_calorie, efq_15_afraid_full, efq_16_life_weight, efq_17_cant_control</t>
   </si>
   <si>
     <t>efq_fopc</t>
   </si>
   <si>
-    <t>sum of EFQ Fear of Personal Consequences questions</t>
-  </si>
-  <si>
     <t>efq_13_emotion_weight, efq_18_uncomfortable, efq_19_not_like</t>
   </si>
   <si>
     <t>efq_fops</t>
   </si>
   <si>
-    <t>sum of EFQ Fear of Physical Sensations questions</t>
-  </si>
-  <si>
     <t>efq_12_public, efq_20_eating_front</t>
   </si>
   <si>
     <t>efq_fose</t>
   </si>
   <si>
-    <t>sum of EFQ Fear of Social Eating questions</t>
-  </si>
-  <si>
     <t>efq_fowg</t>
   </si>
   <si>
-    <t>efq_fowg_weighted_sum</t>
-  </si>
-  <si>
-    <t>efq_fowg_sum_25</t>
-  </si>
-  <si>
-    <t>weighted sum of EFQ FOWG with 25% or less missing</t>
-  </si>
-  <si>
-    <t>efq_fowg_NA_percent &gt; 25</t>
-  </si>
-  <si>
-    <t>efq_fosc_weighted_sum</t>
-  </si>
-  <si>
-    <t>efq_fosc_sum_25</t>
-  </si>
-  <si>
-    <t>weighted sum of EFQ FOSC with 25% or less missing</t>
-  </si>
-  <si>
-    <t>efq_fosc_NA_percent &gt; 25</t>
-  </si>
-  <si>
-    <t>efq_fopc_weighted_sum</t>
-  </si>
-  <si>
-    <t>weighted sum of EFQ FOPC with 25% or less missing</t>
-  </si>
-  <si>
-    <t>efq_fopc_NA_percent &gt; 25</t>
-  </si>
-  <si>
-    <t>efq_fops_weighted_sum</t>
-  </si>
-  <si>
-    <t>efq_fopc_sum_25</t>
-  </si>
-  <si>
-    <t>efq_fops_sum_25</t>
-  </si>
-  <si>
-    <t>weighted sum of EFQ FOPS with 25% or less missing</t>
-  </si>
-  <si>
-    <t>efq_fops_NA_percent &gt; 25</t>
-  </si>
-  <si>
-    <t>efq_fose_weighted_sum</t>
-  </si>
-  <si>
-    <t>efq_fose_sum_25</t>
-  </si>
-  <si>
-    <t>weighted sum of EFQ FOSE with 25% or less missing</t>
-  </si>
-  <si>
-    <t>efq_fose_NA_percent &gt; 25</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>average of EFQ Fear of Weight Gain questions</t>
+  </si>
+  <si>
+    <t>average of EFQ Fear of Social Consequences questions</t>
+  </si>
+  <si>
+    <t>average of EFQ Fear of Personal Consequences questions</t>
+  </si>
+  <si>
+    <t>average of EFQ Fear of Physical Sensations questions</t>
+  </si>
+  <si>
+    <t>average of EFQ Fear of Social Eating questions</t>
   </si>
 </sst>
 </file>
@@ -784,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7308F9-F148-F248-A8CF-73AEFF3C6044}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2485,13 +2428,13 @@
         <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -2517,16 +2460,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -2556,16 +2499,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E51" s="1">
         <v>4</v>
@@ -2591,16 +2534,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E52" s="1">
         <v>4</v>
@@ -2626,16 +2569,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E53" s="1">
         <v>4</v>
@@ -2691,181 +2634,6 @@
         <v>91</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="1">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="1">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J56" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="1">
-        <v>5</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="1">
-        <v>5</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="1">
-        <v>5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/scoresheets_tocheck/EFQ_Scoresheet.xlsx
+++ b/scoresheets_tocheck/EFQ_Scoresheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/BAM-data-cleaning/scoresheets_tocheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C859CF3-7CB2-AE48-BAD6-489EC845E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB55F9-E035-B34C-B0D2-0427228C1618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="111">
   <si>
     <t>raw_vars</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>average of EFQ Fear of Social Eating questions</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>Not at all = 0, 2=1,  3=2, 4=3, 5=4, 6=5, Very much so = 6</t>
   </si>
 </sst>
 </file>
@@ -729,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7308F9-F148-F248-A8CF-73AEFF3C6044}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1670,8 +1676,8 @@
       <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
+      <c r="G27" t="s">
+        <v>110</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -1697,7 +1703,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1705,8 +1711,8 @@
       <c r="F28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>32</v>
+      <c r="G28" t="s">
+        <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -1732,7 +1738,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1740,8 +1746,8 @@
       <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>32</v>
+      <c r="G29" t="s">
+        <v>110</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
@@ -1767,7 +1773,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1775,8 +1781,8 @@
       <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>32</v>
+      <c r="G30" t="s">
+        <v>110</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>32</v>
@@ -1802,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1810,8 +1816,8 @@
       <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>32</v>
+      <c r="G31" t="s">
+        <v>110</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>32</v>
@@ -1837,7 +1843,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1845,8 +1851,8 @@
       <c r="F32" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>32</v>
+      <c r="G32" t="s">
+        <v>110</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -1872,7 +1878,7 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1880,8 +1886,8 @@
       <c r="F33" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>32</v>
+      <c r="G33" t="s">
+        <v>110</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>32</v>
@@ -1907,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1915,8 +1921,8 @@
       <c r="F34" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
+      <c r="G34" t="s">
+        <v>110</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -1942,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1950,8 +1956,8 @@
       <c r="F35" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
+      <c r="G35" t="s">
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>32</v>
@@ -1977,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1985,8 +1991,8 @@
       <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
+      <c r="G36" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -2012,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -2020,8 +2026,8 @@
       <c r="F37" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
+      <c r="G37" t="s">
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -2047,7 +2053,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -2055,8 +2061,8 @@
       <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
+      <c r="G38" t="s">
+        <v>110</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2082,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -2090,8 +2096,8 @@
       <c r="F39" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
+      <c r="G39" t="s">
+        <v>110</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -2117,7 +2123,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -2125,8 +2131,8 @@
       <c r="F40" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
+      <c r="G40" t="s">
+        <v>110</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -2152,7 +2158,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -2160,8 +2166,8 @@
       <c r="F41" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>32</v>
+      <c r="G41" t="s">
+        <v>110</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -2187,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -2195,8 +2201,8 @@
       <c r="F42" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>32</v>
+      <c r="G42" t="s">
+        <v>110</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>32</v>
@@ -2222,7 +2228,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -2230,8 +2236,8 @@
       <c r="F43" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>32</v>
+      <c r="G43" t="s">
+        <v>110</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>32</v>
@@ -2257,7 +2263,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -2265,8 +2271,8 @@
       <c r="F44" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>32</v>
+      <c r="G44" t="s">
+        <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>32</v>
@@ -2292,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2300,8 +2306,8 @@
       <c r="F45" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>32</v>
+      <c r="G45" t="s">
+        <v>110</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>32</v>
@@ -2327,7 +2333,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2335,8 +2341,8 @@
       <c r="F46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>32</v>
+      <c r="G46" t="s">
+        <v>110</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>32</v>

--- a/scoresheets_tocheck/EFQ_Scoresheet.xlsx
+++ b/scoresheets_tocheck/EFQ_Scoresheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/BAM-data-cleaning/scoresheets_tocheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB55F9-E035-B34C-B0D2-0427228C1618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B488294-71F5-FB48-836C-22379DDF6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7308F9-F148-F248-A8CF-73AEFF3C6044}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
